--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivam/Downloads/epgdaba/Term 1/Data Visualization/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4357CE1A-DC1D-A84C-ABE1-64517F2A9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FA8FF-52C2-9444-92DC-EA6649BE0580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D5310315-C170-4FCF-B9E2-2103E9CC307E}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Data Set" sheetId="1" r:id="rId1"/>
-    <sheet name="Work Division" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final Data Set'!$A$1:$W$652</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Final Data Set'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Final Data Set'!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Final Data Set'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6583" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="771">
   <si>
     <t>Job Title</t>
   </si>
@@ -2332,66 +2328,6 @@
     <t>XSELL Technologies</t>
   </si>
   <si>
-    <t>(PLEASE CLEAN IN SEPARTE SHEET, DONT CHANGE ORIGINAL DATA)</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DVAC: project</t>
-  </si>
-  <si>
-    <t>Mayank</t>
-  </si>
-  <si>
-    <t>Data cleaning: Job titles segregation</t>
-  </si>
-  <si>
-    <t>Kaushal</t>
-  </si>
-  <si>
-    <t>replace diff data analysts to only 1 data analyst)</t>
-  </si>
-  <si>
-    <t>data scientist all types to only data scientist</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t>experienced data scientist to senior data scientist</t>
-  </si>
-  <si>
-    <t>Shivam</t>
-  </si>
-  <si>
-    <t>Data science / Machine learning to Machine learning</t>
-  </si>
-  <si>
-    <t>Poornima</t>
-  </si>
-  <si>
-    <t>make buckets if avg salary in multiple of 20?</t>
-  </si>
-  <si>
-    <t>Replace zeroes with actual revenue on google</t>
-  </si>
-  <si>
-    <t>Rating column - no cleaning required</t>
-  </si>
-  <si>
-    <t>Company name - lower or upper case convention to be followed and clubbed together</t>
-  </si>
-  <si>
-    <t>Location - find State names and replace the location names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size - replace </t>
-  </si>
-  <si>
     <t>$1000 to $2000 million (USD)</t>
   </si>
   <si>
@@ -2405,9 +2341,6 @@
   </si>
   <si>
     <t>$5000 to $10000 million (USD)</t>
-  </si>
-  <si>
-    <t>create bins of equal size with no overlap (eg : 110-120, 120-130…) Bins with range 20 is more suitable and trend is clearly visible</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2351,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2441,26 +2374,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2476,12 +2396,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2800,7 +2718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09EAAF-5A29-4A06-B731-47817EC13815}">
   <dimension ref="A1:W652"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2830,73 +2750,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3068,7 +2988,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J4">
         <v>212</v>
@@ -3139,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J5">
         <v>105</v>
@@ -3655,7 +3575,7 @@
       </c>
       <c r="O12">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -3779,7 +3699,7 @@
         <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J14">
         <v>75</v>
@@ -3850,7 +3770,7 @@
         <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J15">
         <v>90</v>
@@ -4773,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J28">
         <v>87</v>
@@ -4915,7 +4835,7 @@
         <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J30">
         <v>79</v>
@@ -5128,7 +5048,7 @@
         <v>127</v>
       </c>
       <c r="I33" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J33">
         <v>99</v>
@@ -5199,7 +5119,7 @@
         <v>127</v>
       </c>
       <c r="I34" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J34">
         <v>99</v>
@@ -5554,7 +5474,7 @@
         <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J39">
         <v>122</v>
@@ -5625,7 +5545,7 @@
         <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J40">
         <v>31</v>
@@ -6051,7 +5971,7 @@
         <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J46">
         <v>31</v>
@@ -6122,7 +6042,7 @@
         <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J47">
         <v>66</v>
@@ -6193,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J48">
         <v>92</v>
@@ -6477,7 +6397,7 @@
         <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J52">
         <v>56</v>
@@ -6548,7 +6468,7 @@
         <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J53">
         <v>71</v>
@@ -6761,7 +6681,7 @@
         <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J56">
         <v>145</v>
@@ -6832,7 +6752,7 @@
         <v>39</v>
       </c>
       <c r="I57" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J57">
         <v>79</v>
@@ -6903,7 +6823,7 @@
         <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J58">
         <v>79</v>
@@ -6974,7 +6894,7 @@
         <v>39</v>
       </c>
       <c r="I59" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J59">
         <v>56</v>
@@ -7045,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J60">
         <v>56</v>
@@ -7116,7 +7036,7 @@
         <v>39</v>
       </c>
       <c r="I61" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J61">
         <v>79</v>
@@ -7187,7 +7107,7 @@
         <v>39</v>
       </c>
       <c r="I62" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J62">
         <v>141</v>
@@ -7258,7 +7178,7 @@
         <v>39</v>
       </c>
       <c r="I63" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J63">
         <v>112</v>
@@ -7329,7 +7249,7 @@
         <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J64">
         <v>212</v>
@@ -7400,7 +7320,7 @@
         <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J65">
         <v>80</v>
@@ -7471,7 +7391,7 @@
         <v>39</v>
       </c>
       <c r="I66" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J66">
         <v>92</v>
@@ -7542,7 +7462,7 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J67">
         <v>79</v>
@@ -7613,7 +7533,7 @@
         <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J68">
         <v>99</v>
@@ -7684,7 +7604,7 @@
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J69">
         <v>101</v>
@@ -7755,7 +7675,7 @@
         <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J70">
         <v>101</v>
@@ -7826,7 +7746,7 @@
         <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J71">
         <v>69</v>
@@ -7897,7 +7817,7 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J72">
         <v>128</v>
@@ -7968,7 +7888,7 @@
         <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J73">
         <v>80</v>
@@ -8465,7 +8385,7 @@
         <v>44</v>
       </c>
       <c r="I80" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J80">
         <v>90</v>
@@ -9104,7 +9024,7 @@
         <v>39</v>
       </c>
       <c r="I89" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J89">
         <v>110</v>
@@ -9175,7 +9095,7 @@
         <v>39</v>
       </c>
       <c r="I90" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J90">
         <v>128</v>
@@ -9246,7 +9166,7 @@
         <v>39</v>
       </c>
       <c r="I91" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J91">
         <v>90</v>
@@ -9530,7 +9450,7 @@
         <v>75</v>
       </c>
       <c r="I95" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J95">
         <v>79</v>
@@ -9814,7 +9734,7 @@
         <v>44</v>
       </c>
       <c r="I99" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J99">
         <v>124</v>
@@ -9885,7 +9805,7 @@
         <v>75</v>
       </c>
       <c r="I100" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J100">
         <v>71</v>
@@ -10027,7 +9947,7 @@
         <v>227</v>
       </c>
       <c r="I102" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J102">
         <v>137</v>
@@ -10098,7 +10018,7 @@
         <v>227</v>
       </c>
       <c r="I103" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J103">
         <v>56</v>
@@ -10169,7 +10089,7 @@
         <v>227</v>
       </c>
       <c r="I104" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J104">
         <v>56</v>
@@ -10240,7 +10160,7 @@
         <v>44</v>
       </c>
       <c r="I105" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J105">
         <v>124</v>
@@ -10311,7 +10231,7 @@
         <v>96</v>
       </c>
       <c r="I106" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J106">
         <v>56</v>
@@ -10382,7 +10302,7 @@
         <v>96</v>
       </c>
       <c r="I107" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J107">
         <v>71</v>
@@ -10524,7 +10444,7 @@
         <v>96</v>
       </c>
       <c r="I109" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J109">
         <v>92</v>
@@ -10879,7 +10799,7 @@
         <v>39</v>
       </c>
       <c r="I114" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J114">
         <v>141</v>
@@ -11040,7 +10960,7 @@
       </c>
       <c r="O116">
         <f ca="1">RANDBETWEEN(6,51)</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -11093,7 +11013,7 @@
         <v>248</v>
       </c>
       <c r="I117" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J117">
         <v>112</v>
@@ -11164,7 +11084,7 @@
         <v>248</v>
       </c>
       <c r="I118" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J118">
         <v>66</v>
@@ -11235,7 +11155,7 @@
         <v>227</v>
       </c>
       <c r="I119" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J119">
         <v>79</v>
@@ -11519,7 +11439,7 @@
         <v>39</v>
       </c>
       <c r="I123" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J123">
         <v>79</v>
@@ -11590,7 +11510,7 @@
         <v>39</v>
       </c>
       <c r="I124" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J124">
         <v>112</v>
@@ -11732,7 +11652,7 @@
         <v>29</v>
       </c>
       <c r="I126" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J126">
         <v>79</v>
@@ -12016,7 +11936,7 @@
         <v>106</v>
       </c>
       <c r="I130" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J130">
         <v>80</v>
@@ -12442,7 +12362,7 @@
         <v>278</v>
       </c>
       <c r="I136" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J136">
         <v>91</v>
@@ -12461,7 +12381,7 @@
       </c>
       <c r="O136">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -12514,7 +12434,7 @@
         <v>39</v>
       </c>
       <c r="I137" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J137">
         <v>110</v>
@@ -13366,7 +13286,7 @@
         <v>44</v>
       </c>
       <c r="I149" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J149">
         <v>56</v>
@@ -13437,7 +13357,7 @@
         <v>44</v>
       </c>
       <c r="I150" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J150">
         <v>90</v>
@@ -13863,7 +13783,7 @@
         <v>29</v>
       </c>
       <c r="I156" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J156">
         <v>145</v>
@@ -13934,7 +13854,7 @@
         <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J157">
         <v>124</v>
@@ -14431,7 +14351,7 @@
         <v>96</v>
       </c>
       <c r="I164" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J164">
         <v>87</v>
@@ -15638,7 +15558,7 @@
         <v>29</v>
       </c>
       <c r="I181" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J181">
         <v>91</v>
@@ -15657,7 +15577,7 @@
       </c>
       <c r="O181">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -16136,7 +16056,7 @@
         <v>39</v>
       </c>
       <c r="I188" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J188">
         <v>80</v>
@@ -16846,7 +16766,7 @@
         <v>81</v>
       </c>
       <c r="I198" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J198">
         <v>112</v>
@@ -16917,7 +16837,7 @@
         <v>81</v>
       </c>
       <c r="I199" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J199">
         <v>66</v>
@@ -17414,7 +17334,7 @@
         <v>127</v>
       </c>
       <c r="I206" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J206">
         <v>91</v>
@@ -17485,7 +17405,7 @@
         <v>75</v>
       </c>
       <c r="I207" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J207">
         <v>87</v>
@@ -17556,7 +17476,7 @@
         <v>127</v>
       </c>
       <c r="I208" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J208">
         <v>31</v>
@@ -18053,7 +17973,7 @@
         <v>276</v>
       </c>
       <c r="I215" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J215">
         <v>95</v>
@@ -18124,7 +18044,7 @@
         <v>39</v>
       </c>
       <c r="I216" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J216">
         <v>56</v>
@@ -18195,7 +18115,7 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J217">
         <v>101</v>
@@ -18763,7 +18683,7 @@
         <v>106</v>
       </c>
       <c r="I225" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J225">
         <v>75</v>
@@ -18834,7 +18754,7 @@
         <v>106</v>
       </c>
       <c r="I226" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J226">
         <v>79</v>
@@ -19402,7 +19322,7 @@
         <v>44</v>
       </c>
       <c r="I234" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J234">
         <v>128</v>
@@ -19473,7 +19393,7 @@
         <v>39</v>
       </c>
       <c r="I235" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J235">
         <v>145</v>
@@ -19544,7 +19464,7 @@
         <v>39</v>
       </c>
       <c r="I236" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J236">
         <v>80</v>
@@ -19615,7 +19535,7 @@
         <v>75</v>
       </c>
       <c r="I237" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J237">
         <v>137</v>
@@ -20041,7 +19961,7 @@
         <v>39</v>
       </c>
       <c r="I243" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J243">
         <v>69</v>
@@ -21674,7 +21594,7 @@
         <v>29</v>
       </c>
       <c r="I266" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J266">
         <v>99</v>
@@ -21887,7 +21807,7 @@
         <v>29</v>
       </c>
       <c r="I269" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J269">
         <v>69</v>
@@ -21958,7 +21878,7 @@
         <v>75</v>
       </c>
       <c r="I270" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J270">
         <v>128</v>
@@ -22100,7 +22020,7 @@
         <v>278</v>
       </c>
       <c r="I272" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J272">
         <v>71</v>
@@ -22455,7 +22375,7 @@
         <v>39</v>
       </c>
       <c r="I277" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J277">
         <v>138</v>
@@ -22597,7 +22517,7 @@
         <v>29</v>
       </c>
       <c r="I279" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J279">
         <v>137</v>
@@ -22881,7 +22801,7 @@
         <v>127</v>
       </c>
       <c r="I283" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J283">
         <v>99</v>
@@ -22952,7 +22872,7 @@
         <v>29</v>
       </c>
       <c r="I284" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J284">
         <v>137</v>
@@ -23023,7 +22943,7 @@
         <v>29</v>
       </c>
       <c r="I285" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J285">
         <v>99</v>
@@ -23094,7 +23014,7 @@
         <v>29</v>
       </c>
       <c r="I286" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J286">
         <v>99</v>
@@ -23236,7 +23156,7 @@
         <v>276</v>
       </c>
       <c r="I288" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J288">
         <v>137</v>
@@ -23307,7 +23227,7 @@
         <v>276</v>
       </c>
       <c r="I289" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J289">
         <v>79</v>
@@ -23610,7 +23530,7 @@
       </c>
       <c r="O293">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="P293">
         <v>1</v>
@@ -23876,7 +23796,7 @@
         <v>44</v>
       </c>
       <c r="I297" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J297">
         <v>91</v>
@@ -24444,7 +24364,7 @@
         <v>96</v>
       </c>
       <c r="I305" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J305">
         <v>122</v>
@@ -24515,7 +24435,7 @@
         <v>96</v>
       </c>
       <c r="I306" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J306">
         <v>31</v>
@@ -24586,7 +24506,7 @@
         <v>96</v>
       </c>
       <c r="I307" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J307">
         <v>80</v>
@@ -24657,7 +24577,7 @@
         <v>278</v>
       </c>
       <c r="I308" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J308">
         <v>99</v>
@@ -24728,7 +24648,7 @@
         <v>278</v>
       </c>
       <c r="I309" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J309">
         <v>90</v>
@@ -24799,7 +24719,7 @@
         <v>278</v>
       </c>
       <c r="I310" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J310">
         <v>105</v>
@@ -24870,7 +24790,7 @@
         <v>44</v>
       </c>
       <c r="I311" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J311">
         <v>92</v>
@@ -24941,7 +24861,7 @@
         <v>39</v>
       </c>
       <c r="I312" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J312">
         <v>105</v>
@@ -25012,7 +24932,7 @@
         <v>44</v>
       </c>
       <c r="I313" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J313">
         <v>101</v>
@@ -25083,7 +25003,7 @@
         <v>44</v>
       </c>
       <c r="I314" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J314">
         <v>66</v>
@@ -26432,7 +26352,7 @@
         <v>106</v>
       </c>
       <c r="I333" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J333">
         <v>91</v>
@@ -26503,7 +26423,7 @@
         <v>96</v>
       </c>
       <c r="I334" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J334">
         <v>101</v>
@@ -26574,7 +26494,7 @@
         <v>96</v>
       </c>
       <c r="I335" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J335">
         <v>141</v>
@@ -26787,7 +26707,7 @@
         <v>75</v>
       </c>
       <c r="I338" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J338">
         <v>75</v>
@@ -26858,7 +26778,7 @@
         <v>75</v>
       </c>
       <c r="I339" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J339">
         <v>110</v>
@@ -27852,7 +27772,7 @@
         <v>227</v>
       </c>
       <c r="I353" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J353">
         <v>101</v>
@@ -27923,7 +27843,7 @@
         <v>44</v>
       </c>
       <c r="I354" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J354">
         <v>137</v>
@@ -27994,7 +27914,7 @@
         <v>44</v>
       </c>
       <c r="I355" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J355">
         <v>79</v>
@@ -28065,7 +27985,7 @@
         <v>44</v>
       </c>
       <c r="I356" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J356">
         <v>87</v>
@@ -28207,7 +28127,7 @@
         <v>227</v>
       </c>
       <c r="I358" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J358">
         <v>79</v>
@@ -28278,7 +28198,7 @@
         <v>227</v>
       </c>
       <c r="I359" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J359">
         <v>99</v>
@@ -28349,7 +28269,7 @@
         <v>227</v>
       </c>
       <c r="I360" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J360">
         <v>138</v>
@@ -28420,7 +28340,7 @@
         <v>227</v>
       </c>
       <c r="I361" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J361">
         <v>92</v>
@@ -28491,7 +28411,7 @@
         <v>75</v>
       </c>
       <c r="I362" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J362">
         <v>56</v>
@@ -28562,7 +28482,7 @@
         <v>75</v>
       </c>
       <c r="I363" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J363">
         <v>79</v>
@@ -28633,7 +28553,7 @@
         <v>75</v>
       </c>
       <c r="I364" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J364">
         <v>90</v>
@@ -28704,7 +28624,7 @@
         <v>75</v>
       </c>
       <c r="I365" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J365">
         <v>112</v>
@@ -28775,7 +28695,7 @@
         <v>75</v>
       </c>
       <c r="I366" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J366">
         <v>66</v>
@@ -29059,7 +28979,7 @@
         <v>96</v>
       </c>
       <c r="I370" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J370">
         <v>99</v>
@@ -29130,7 +29050,7 @@
         <v>96</v>
       </c>
       <c r="I371" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J371">
         <v>101</v>
@@ -29201,7 +29121,7 @@
         <v>96</v>
       </c>
       <c r="I372" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J372">
         <v>79</v>
@@ -29272,7 +29192,7 @@
         <v>96</v>
       </c>
       <c r="I373" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J373">
         <v>122</v>
@@ -29343,7 +29263,7 @@
         <v>96</v>
       </c>
       <c r="I374" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J374">
         <v>112</v>
@@ -29414,7 +29334,7 @@
         <v>96</v>
       </c>
       <c r="I375" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J375">
         <v>110</v>
@@ -29485,7 +29405,7 @@
         <v>96</v>
       </c>
       <c r="I376" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J376">
         <v>212</v>
@@ -29556,7 +29476,7 @@
         <v>96</v>
       </c>
       <c r="I377" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J377">
         <v>212</v>
@@ -29627,7 +29547,7 @@
         <v>96</v>
       </c>
       <c r="I378" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J378">
         <v>138</v>
@@ -29698,7 +29618,7 @@
         <v>96</v>
       </c>
       <c r="I379" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J379">
         <v>138</v>
@@ -29769,7 +29689,7 @@
         <v>96</v>
       </c>
       <c r="I380" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J380">
         <v>92</v>
@@ -29840,7 +29760,7 @@
         <v>96</v>
       </c>
       <c r="I381" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J381">
         <v>92</v>
@@ -29982,7 +29902,7 @@
         <v>29</v>
       </c>
       <c r="I383" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J383">
         <v>110</v>
@@ -30214,7 +30134,7 @@
       </c>
       <c r="O386">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P386">
         <v>1</v>
@@ -30409,7 +30329,7 @@
         <v>127</v>
       </c>
       <c r="I389" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J389">
         <v>101</v>
@@ -30693,7 +30613,7 @@
         <v>106</v>
       </c>
       <c r="I393" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J393">
         <v>90</v>
@@ -30764,7 +30684,7 @@
         <v>106</v>
       </c>
       <c r="I394" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J394">
         <v>128</v>
@@ -30835,7 +30755,7 @@
         <v>106</v>
       </c>
       <c r="I395" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J395">
         <v>138</v>
@@ -31616,7 +31536,7 @@
         <v>127</v>
       </c>
       <c r="I406" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J406">
         <v>110</v>
@@ -31687,7 +31607,7 @@
         <v>127</v>
       </c>
       <c r="I407" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J407">
         <v>138</v>
@@ -31758,7 +31678,7 @@
         <v>127</v>
       </c>
       <c r="I408" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J408">
         <v>138</v>
@@ -32681,7 +32601,7 @@
         <v>39</v>
       </c>
       <c r="I421" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J421">
         <v>137</v>
@@ -32752,7 +32672,7 @@
         <v>39</v>
       </c>
       <c r="I422" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J422">
         <v>75</v>
@@ -32823,7 +32743,7 @@
         <v>39</v>
       </c>
       <c r="I423" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J423">
         <v>79</v>
@@ -32894,7 +32814,7 @@
         <v>39</v>
       </c>
       <c r="I424" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J424">
         <v>79</v>
@@ -32965,7 +32885,7 @@
         <v>39</v>
       </c>
       <c r="I425" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J425">
         <v>69</v>
@@ -33959,7 +33879,7 @@
         <v>227</v>
       </c>
       <c r="I439" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J439">
         <v>137</v>
@@ -34030,7 +33950,7 @@
         <v>44</v>
       </c>
       <c r="I440" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J440">
         <v>90</v>
@@ -34101,7 +34021,7 @@
         <v>81</v>
       </c>
       <c r="I441" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J441">
         <v>71</v>
@@ -34243,7 +34163,7 @@
         <v>227</v>
       </c>
       <c r="I443" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J443">
         <v>141</v>
@@ -34527,7 +34447,7 @@
         <v>248</v>
       </c>
       <c r="I447" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J447">
         <v>91</v>
@@ -34546,7 +34466,7 @@
       </c>
       <c r="O447">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P447">
         <v>0</v>
@@ -34599,7 +34519,7 @@
         <v>29</v>
       </c>
       <c r="I448" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J448">
         <v>105</v>
@@ -34689,7 +34609,7 @@
       </c>
       <c r="O449">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P449">
         <v>1</v>
@@ -34742,7 +34662,7 @@
         <v>227</v>
       </c>
       <c r="I450" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J450">
         <v>90</v>
@@ -34884,7 +34804,7 @@
         <v>96</v>
       </c>
       <c r="I452" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J452">
         <v>128</v>
@@ -34955,7 +34875,7 @@
         <v>96</v>
       </c>
       <c r="I453" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J453">
         <v>112</v>
@@ -35026,7 +34946,7 @@
         <v>96</v>
       </c>
       <c r="I454" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J454">
         <v>105</v>
@@ -35168,7 +35088,7 @@
         <v>39</v>
       </c>
       <c r="I456" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J456">
         <v>75</v>
@@ -35949,7 +35869,7 @@
         <v>248</v>
       </c>
       <c r="I467" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J467">
         <v>137</v>
@@ -36020,7 +35940,7 @@
         <v>248</v>
       </c>
       <c r="I468" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J468">
         <v>56</v>
@@ -36801,7 +36721,7 @@
         <v>29</v>
       </c>
       <c r="I479" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J479">
         <v>90</v>
@@ -36872,7 +36792,7 @@
         <v>81</v>
       </c>
       <c r="I480" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J480">
         <v>87</v>
@@ -37227,7 +37147,7 @@
         <v>248</v>
       </c>
       <c r="I485" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J485">
         <v>75</v>
@@ -37298,7 +37218,7 @@
         <v>248</v>
       </c>
       <c r="I486" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J486">
         <v>91</v>
@@ -37317,7 +37237,7 @@
       </c>
       <c r="O486">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P486">
         <v>0</v>
@@ -37938,7 +37858,7 @@
         <v>276</v>
       </c>
       <c r="I495" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J495">
         <v>105</v>
@@ -38364,7 +38284,7 @@
         <v>29</v>
       </c>
       <c r="I501" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J501">
         <v>90</v>
@@ -38577,7 +38497,7 @@
         <v>227</v>
       </c>
       <c r="I504" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J504">
         <v>110</v>
@@ -38648,7 +38568,7 @@
         <v>227</v>
       </c>
       <c r="I505" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J505">
         <v>138</v>
@@ -38932,7 +38852,7 @@
         <v>44</v>
       </c>
       <c r="I509" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J509">
         <v>124</v>
@@ -39003,7 +38923,7 @@
         <v>39</v>
       </c>
       <c r="I510" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J510">
         <v>212</v>
@@ -39784,7 +39704,7 @@
         <v>106</v>
       </c>
       <c r="I521" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J521">
         <v>138</v>
@@ -39855,7 +39775,7 @@
         <v>39</v>
       </c>
       <c r="I522" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J522">
         <v>90</v>
@@ -39997,7 +39917,7 @@
         <v>127</v>
       </c>
       <c r="I524" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J524">
         <v>79</v>
@@ -40281,7 +40201,7 @@
         <v>75</v>
       </c>
       <c r="I528" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J528">
         <v>101</v>
@@ -41417,7 +41337,7 @@
         <v>44</v>
       </c>
       <c r="I544" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J544">
         <v>79</v>
@@ -41488,7 +41408,7 @@
         <v>44</v>
       </c>
       <c r="I545" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J545">
         <v>112</v>
@@ -41559,7 +41479,7 @@
         <v>44</v>
       </c>
       <c r="I546" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J546">
         <v>212</v>
@@ -41630,7 +41550,7 @@
         <v>44</v>
       </c>
       <c r="I547" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J547">
         <v>212</v>
@@ -41701,7 +41621,7 @@
         <v>44</v>
       </c>
       <c r="I548" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J548">
         <v>66</v>
@@ -41772,7 +41692,7 @@
         <v>44</v>
       </c>
       <c r="I549" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J549">
         <v>92</v>
@@ -41843,7 +41763,7 @@
         <v>278</v>
       </c>
       <c r="I550" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J550">
         <v>90</v>
@@ -42340,7 +42260,7 @@
         <v>106</v>
       </c>
       <c r="I557" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J557">
         <v>141</v>
@@ -42624,7 +42544,7 @@
         <v>29</v>
       </c>
       <c r="I561" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J561">
         <v>79</v>
@@ -42837,7 +42757,7 @@
         <v>75</v>
       </c>
       <c r="I564" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J564">
         <v>75</v>
@@ -43121,7 +43041,7 @@
         <v>127</v>
       </c>
       <c r="I568" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J568">
         <v>71</v>
@@ -43334,7 +43254,7 @@
         <v>39</v>
       </c>
       <c r="I571" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J571">
         <v>75</v>
@@ -43405,7 +43325,7 @@
         <v>39</v>
       </c>
       <c r="I572" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J572">
         <v>112</v>
@@ -43476,7 +43396,7 @@
         <v>81</v>
       </c>
       <c r="I573" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J573">
         <v>141</v>
@@ -43618,7 +43538,7 @@
         <v>227</v>
       </c>
       <c r="I575" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J575">
         <v>141</v>
@@ -44115,7 +44035,7 @@
         <v>39</v>
       </c>
       <c r="I582" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J582">
         <v>79</v>
@@ -44186,7 +44106,7 @@
         <v>39</v>
       </c>
       <c r="I583" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J583">
         <v>79</v>
@@ -44257,7 +44177,7 @@
         <v>39</v>
       </c>
       <c r="I584" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J584">
         <v>101</v>
@@ -44328,7 +44248,7 @@
         <v>39</v>
       </c>
       <c r="I585" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J585">
         <v>101</v>
@@ -44399,7 +44319,7 @@
         <v>39</v>
       </c>
       <c r="I586" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J586">
         <v>79</v>
@@ -44470,7 +44390,7 @@
         <v>39</v>
       </c>
       <c r="I587" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J587">
         <v>110</v>
@@ -44541,7 +44461,7 @@
         <v>39</v>
       </c>
       <c r="I588" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J588">
         <v>110</v>
@@ -44612,7 +44532,7 @@
         <v>39</v>
       </c>
       <c r="I589" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J589">
         <v>31</v>
@@ -44683,7 +44603,7 @@
         <v>39</v>
       </c>
       <c r="I590" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J590">
         <v>95</v>
@@ -44754,7 +44674,7 @@
         <v>39</v>
       </c>
       <c r="I591" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J591">
         <v>128</v>
@@ -44825,7 +44745,7 @@
         <v>39</v>
       </c>
       <c r="I592" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J592">
         <v>128</v>
@@ -45038,7 +44958,7 @@
         <v>39</v>
       </c>
       <c r="I595" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J595">
         <v>79</v>
@@ -45109,7 +45029,7 @@
         <v>39</v>
       </c>
       <c r="I596" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J596">
         <v>69</v>
@@ -45464,7 +45384,7 @@
         <v>29</v>
       </c>
       <c r="I601" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="J601">
         <v>69</v>
@@ -45890,7 +45810,7 @@
         <v>39</v>
       </c>
       <c r="I607" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J607">
         <v>137</v>
@@ -46103,7 +46023,7 @@
         <v>44</v>
       </c>
       <c r="I610" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J610">
         <v>105</v>
@@ -46174,7 +46094,7 @@
         <v>75</v>
       </c>
       <c r="I611" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J611">
         <v>112</v>
@@ -46245,7 +46165,7 @@
         <v>75</v>
       </c>
       <c r="I612" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J612">
         <v>66</v>
@@ -46884,7 +46804,7 @@
         <v>29</v>
       </c>
       <c r="I621" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J621">
         <v>75</v>
@@ -46955,7 +46875,7 @@
         <v>29</v>
       </c>
       <c r="I622" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J622">
         <v>124</v>
@@ -47239,7 +47159,7 @@
         <v>44</v>
       </c>
       <c r="I626" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J626">
         <v>91</v>
@@ -47542,7 +47462,7 @@
       </c>
       <c r="O630">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="P630">
         <v>1</v>
@@ -47808,7 +47728,7 @@
         <v>29</v>
       </c>
       <c r="I634" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J634">
         <v>80</v>
@@ -47879,7 +47799,7 @@
         <v>29</v>
       </c>
       <c r="I635" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="J635">
         <v>87</v>
@@ -48092,7 +48012,7 @@
         <v>29</v>
       </c>
       <c r="I638" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J638">
         <v>79</v>
@@ -48163,7 +48083,7 @@
         <v>29</v>
       </c>
       <c r="I639" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J639">
         <v>79</v>
@@ -48589,7 +48509,7 @@
         <v>81</v>
       </c>
       <c r="I645" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="J645">
         <v>79</v>
@@ -48660,7 +48580,7 @@
         <v>29</v>
       </c>
       <c r="I646" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J646">
         <v>122</v>
@@ -48731,7 +48651,7 @@
         <v>29</v>
       </c>
       <c r="I647" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J647">
         <v>31</v>
@@ -48944,7 +48864,7 @@
         <v>81</v>
       </c>
       <c r="I650" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="J650">
         <v>90</v>
@@ -49129,230 +49049,6 @@
       </c>
       <c r="W652" t="s">
         <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C15D6B-6B46-461E-AD37-AF4A1D0C7455}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="78.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>768</v>
-      </c>
-      <c r="H2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>770</v>
-      </c>
-      <c r="H3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="H4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>775</v>
-      </c>
-      <c r="H6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>777</v>
-      </c>
-      <c r="H7" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>779</v>
-      </c>
-      <c r="H10" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>772</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>772</v>
-      </c>
-      <c r="H14" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivam/Downloads/epgdaba/Term 1/Data Visualization/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206BE76B-9F98-7F4A-B232-0046B738553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A7936-C0E5-AE42-915E-3F0B4DD15E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D5310315-C170-4FCF-B9E2-2103E9CC307E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{D5310315-C170-4FCF-B9E2-2103E9CC307E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final Data Set" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Final Data Set" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final Data Set'!$A$1:$A$652</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Final Data Set'!$A$1:$A$652</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6549" uniqueCount="773">
   <si>
     <t>Job Title</t>
   </si>
@@ -2329,6 +2333,24 @@
   </si>
   <si>
     <t>$5000 to $10000 million (USD)</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of Industry</t>
+  </si>
+  <si>
+    <t>Information Technologys</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -2384,11 +2406,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2405,6 +2432,2087 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44419.978249652777" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="652" xr:uid="{F52FAAB5-0685-C74B-A5FB-4AF44F6A43A5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="H1:H1048576" sheet="Final Data Set"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Industry" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="Information Technology"/>
+        <s v="Health Care"/>
+        <s v="Business Services"/>
+        <s v="Insurance"/>
+        <s v="Other Services"/>
+        <s v="Aerospace &amp; Defense"/>
+        <s v="Finance"/>
+        <s v="Manufacturing"/>
+        <s v="Oil, Gas, Energy &amp; Utilities"/>
+        <s v="Government"/>
+        <s v="Retail"/>
+        <s v="Telecommunications"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="652">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FBBD92F-7955-C64F-B421-6AA3B55D79F0}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="14">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Industry" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2703,11 +4811,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED77C9C-4AAA-E94A-9A11-C996CD67A24C}">
+  <dimension ref="A3:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" s="6">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09EAAF-5A29-4A06-B731-47817EC13815}">
   <dimension ref="A1:W652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3563,7 +5808,7 @@
       </c>
       <c r="O12">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -3684,7 +5929,7 @@
         <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
         <v>762</v>
@@ -3755,7 +6000,7 @@
         <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
         <v>762</v>
@@ -3826,7 +6071,7 @@
         <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I16" t="s">
         <v>81</v>
@@ -4536,7 +6781,7 @@
         <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I26" t="s">
         <v>30</v>
@@ -5175,7 +7420,7 @@
         <v>130</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
         <v>68</v>
@@ -5317,7 +7562,7 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I37" t="s">
         <v>68</v>
@@ -5388,7 +7633,7 @@
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I38" t="s">
         <v>68</v>
@@ -5459,7 +7704,7 @@
         <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I39" t="s">
         <v>764</v>
@@ -5530,7 +7775,7 @@
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
         <v>764</v>
@@ -6169,7 +8414,7 @@
         <v>157</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I49" t="s">
         <v>68</v>
@@ -6240,7 +8485,7 @@
         <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I50" t="s">
         <v>81</v>
@@ -6382,7 +8627,7 @@
         <v>38</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I52" t="s">
         <v>762</v>
@@ -6453,7 +8698,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I53" t="s">
         <v>762</v>
@@ -8938,7 +11183,7 @@
         <v>130</v>
       </c>
       <c r="H88" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I88" t="s">
         <v>134</v>
@@ -9435,7 +11680,7 @@
         <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I95" t="s">
         <v>766</v>
@@ -9790,7 +12035,7 @@
         <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I100" t="s">
         <v>762</v>
@@ -10948,7 +13193,7 @@
       </c>
       <c r="O116">
         <f ca="1">RANDBETWEEN(6,51)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -10998,7 +13243,7 @@
         <v>130</v>
       </c>
       <c r="H117" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I117" t="s">
         <v>762</v>
@@ -11069,7 +13314,7 @@
         <v>130</v>
       </c>
       <c r="H118" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I118" t="s">
         <v>762</v>
@@ -11850,7 +14095,7 @@
         <v>118</v>
       </c>
       <c r="H129" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I129" t="s">
         <v>56</v>
@@ -11921,7 +14166,7 @@
         <v>104</v>
       </c>
       <c r="H130" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I130" t="s">
         <v>765</v>
@@ -11992,7 +14237,7 @@
         <v>28</v>
       </c>
       <c r="H131" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I131" t="s">
         <v>134</v>
@@ -12347,7 +14592,7 @@
         <v>38</v>
       </c>
       <c r="H136" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I136" t="s">
         <v>765</v>
@@ -12369,7 +14614,7 @@
       </c>
       <c r="O136">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -12774,7 +15019,7 @@
         <v>28</v>
       </c>
       <c r="H142" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I142" t="s">
         <v>253</v>
@@ -12845,7 +15090,7 @@
         <v>28</v>
       </c>
       <c r="H143" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I143" t="s">
         <v>253</v>
@@ -13200,7 +15445,7 @@
         <v>28</v>
       </c>
       <c r="H148" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I148" t="s">
         <v>86</v>
@@ -14904,7 +17149,7 @@
         <v>28</v>
       </c>
       <c r="H172" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I172" t="s">
         <v>86</v>
@@ -15188,7 +17433,7 @@
         <v>28</v>
       </c>
       <c r="H176" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I176" t="s">
         <v>30</v>
@@ -15565,7 +17810,7 @@
       </c>
       <c r="O181">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -16751,7 +18996,7 @@
         <v>28</v>
       </c>
       <c r="H198" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I198" t="s">
         <v>763</v>
@@ -16822,7 +19067,7 @@
         <v>28</v>
       </c>
       <c r="H199" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I199" t="s">
         <v>763</v>
@@ -17390,7 +19635,7 @@
         <v>28</v>
       </c>
       <c r="H207" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I207" t="s">
         <v>765</v>
@@ -18668,7 +20913,7 @@
         <v>104</v>
       </c>
       <c r="H225" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I225" t="s">
         <v>762</v>
@@ -18739,7 +20984,7 @@
         <v>104</v>
       </c>
       <c r="H226" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I226" t="s">
         <v>762</v>
@@ -18810,7 +21055,7 @@
         <v>28</v>
       </c>
       <c r="H227" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I227" t="s">
         <v>81</v>
@@ -19520,7 +21765,7 @@
         <v>28</v>
       </c>
       <c r="H237" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I237" t="s">
         <v>766</v>
@@ -19804,7 +22049,7 @@
         <v>28</v>
       </c>
       <c r="H241" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I241" t="s">
         <v>253</v>
@@ -19875,7 +22120,7 @@
         <v>28</v>
       </c>
       <c r="H242" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I242" t="s">
         <v>253</v>
@@ -21011,7 +23256,7 @@
         <v>118</v>
       </c>
       <c r="H258" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I258" t="s">
         <v>68</v>
@@ -21082,7 +23327,7 @@
         <v>118</v>
       </c>
       <c r="H259" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I259" t="s">
         <v>68</v>
@@ -21437,7 +23682,7 @@
         <v>28</v>
       </c>
       <c r="H264" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I264" t="s">
         <v>134</v>
@@ -21650,7 +23895,7 @@
         <v>28</v>
       </c>
       <c r="H267" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I267" t="s">
         <v>30</v>
@@ -21863,7 +24108,7 @@
         <v>28</v>
       </c>
       <c r="H270" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I270" t="s">
         <v>763</v>
@@ -21934,7 +24179,7 @@
         <v>28</v>
       </c>
       <c r="H271" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I271" t="s">
         <v>30</v>
@@ -22005,7 +24250,7 @@
         <v>38</v>
       </c>
       <c r="H272" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I272" t="s">
         <v>762</v>
@@ -22431,7 +24676,7 @@
         <v>28</v>
       </c>
       <c r="H278" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I278" t="s">
         <v>30</v>
@@ -23354,7 +25599,7 @@
         <v>118</v>
       </c>
       <c r="H291" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I291" t="s">
         <v>68</v>
@@ -23518,7 +25763,7 @@
       </c>
       <c r="O293">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P293">
         <v>1</v>
@@ -23994,7 +26239,7 @@
         <v>28</v>
       </c>
       <c r="H300" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I300" t="s">
         <v>30</v>
@@ -24065,7 +26310,7 @@
         <v>28</v>
       </c>
       <c r="H301" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I301" t="s">
         <v>68</v>
@@ -24562,7 +26807,7 @@
         <v>38</v>
       </c>
       <c r="H308" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I308" t="s">
         <v>764</v>
@@ -24633,7 +26878,7 @@
         <v>38</v>
       </c>
       <c r="H309" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I309" t="s">
         <v>764</v>
@@ -24704,7 +26949,7 @@
         <v>38</v>
       </c>
       <c r="H310" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I310" t="s">
         <v>764</v>
@@ -25059,7 +27304,7 @@
         <v>38</v>
       </c>
       <c r="H315" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I315" t="s">
         <v>68</v>
@@ -25130,7 +27375,7 @@
         <v>28</v>
       </c>
       <c r="H316" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I316" t="s">
         <v>56</v>
@@ -25201,7 +27446,7 @@
         <v>28</v>
       </c>
       <c r="H317" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I317" t="s">
         <v>56</v>
@@ -25272,7 +27517,7 @@
         <v>28</v>
       </c>
       <c r="H318" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I318" t="s">
         <v>56</v>
@@ -25343,7 +27588,7 @@
         <v>28</v>
       </c>
       <c r="H319" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I319" t="s">
         <v>56</v>
@@ -26337,7 +28582,7 @@
         <v>104</v>
       </c>
       <c r="H333" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I333" t="s">
         <v>762</v>
@@ -26692,7 +28937,7 @@
         <v>28</v>
       </c>
       <c r="H338" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I338" t="s">
         <v>765</v>
@@ -26763,7 +29008,7 @@
         <v>28</v>
       </c>
       <c r="H339" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I339" t="s">
         <v>765</v>
@@ -27331,7 +29576,7 @@
         <v>28</v>
       </c>
       <c r="H347" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I347" t="s">
         <v>86</v>
@@ -27402,7 +29647,7 @@
         <v>28</v>
       </c>
       <c r="H348" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I348" t="s">
         <v>86</v>
@@ -28396,7 +30641,7 @@
         <v>28</v>
       </c>
       <c r="H362" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I362" t="s">
         <v>765</v>
@@ -28467,7 +30712,7 @@
         <v>28</v>
       </c>
       <c r="H363" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I363" t="s">
         <v>765</v>
@@ -28538,7 +30783,7 @@
         <v>28</v>
       </c>
       <c r="H364" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I364" t="s">
         <v>765</v>
@@ -28609,7 +30854,7 @@
         <v>28</v>
       </c>
       <c r="H365" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I365" t="s">
         <v>765</v>
@@ -28680,7 +30925,7 @@
         <v>28</v>
       </c>
       <c r="H366" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I366" t="s">
         <v>765</v>
@@ -29816,7 +32061,7 @@
         <v>38</v>
       </c>
       <c r="H382" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I382" t="s">
         <v>81</v>
@@ -30029,7 +32274,7 @@
         <v>28</v>
       </c>
       <c r="H385" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I385" t="s">
         <v>56</v>
@@ -30122,7 +32367,7 @@
       </c>
       <c r="O386">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P386">
         <v>1</v>
@@ -30598,7 +32843,7 @@
         <v>118</v>
       </c>
       <c r="H393" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I393" t="s">
         <v>762</v>
@@ -30669,7 +32914,7 @@
         <v>118</v>
       </c>
       <c r="H394" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I394" t="s">
         <v>762</v>
@@ -30740,7 +32985,7 @@
         <v>118</v>
       </c>
       <c r="H395" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I395" t="s">
         <v>762</v>
@@ -30811,7 +33056,7 @@
         <v>28</v>
       </c>
       <c r="H396" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I396" t="s">
         <v>56</v>
@@ -31450,7 +33695,7 @@
         <v>28</v>
       </c>
       <c r="H405" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I405" t="s">
         <v>134</v>
@@ -33793,7 +36038,7 @@
         <v>28</v>
       </c>
       <c r="H438" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I438" t="s">
         <v>68</v>
@@ -34006,7 +36251,7 @@
         <v>28</v>
       </c>
       <c r="H441" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I441" t="s">
         <v>764</v>
@@ -34432,7 +36677,7 @@
         <v>104</v>
       </c>
       <c r="H447" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I447" t="s">
         <v>763</v>
@@ -34454,7 +36699,7 @@
       </c>
       <c r="O447">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P447">
         <v>0</v>
@@ -34597,7 +36842,7 @@
       </c>
       <c r="O449">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="P449">
         <v>1</v>
@@ -34718,7 +36963,7 @@
         <v>28</v>
       </c>
       <c r="H451" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I451" t="s">
         <v>81</v>
@@ -35783,7 +38028,7 @@
         <v>28</v>
       </c>
       <c r="H466" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I466" t="s">
         <v>134</v>
@@ -35854,7 +38099,7 @@
         <v>104</v>
       </c>
       <c r="H467" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I467" t="s">
         <v>763</v>
@@ -35925,7 +38170,7 @@
         <v>104</v>
       </c>
       <c r="H468" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I468" t="s">
         <v>763</v>
@@ -35996,7 +38241,7 @@
         <v>28</v>
       </c>
       <c r="H469" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I469" t="s">
         <v>68</v>
@@ -36067,7 +38312,7 @@
         <v>28</v>
       </c>
       <c r="H470" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I470" t="s">
         <v>68</v>
@@ -36138,7 +38383,7 @@
         <v>28</v>
       </c>
       <c r="H471" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I471" t="s">
         <v>68</v>
@@ -36777,7 +39022,7 @@
         <v>130</v>
       </c>
       <c r="H480" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I480" t="s">
         <v>764</v>
@@ -37132,7 +39377,7 @@
         <v>28</v>
       </c>
       <c r="H485" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I485" t="s">
         <v>764</v>
@@ -37203,7 +39448,7 @@
         <v>28</v>
       </c>
       <c r="H486" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I486" t="s">
         <v>764</v>
@@ -37225,7 +39470,7 @@
       </c>
       <c r="O486">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P486">
         <v>0</v>
@@ -37559,7 +39804,7 @@
         <v>38</v>
       </c>
       <c r="H491" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I491" t="s">
         <v>30</v>
@@ -37630,7 +39875,7 @@
         <v>38</v>
       </c>
       <c r="H492" t="s">
-        <v>244</v>
+        <v>772</v>
       </c>
       <c r="I492" t="s">
         <v>30</v>
@@ -38056,7 +40301,7 @@
         <v>28</v>
       </c>
       <c r="H498" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I498" t="s">
         <v>81</v>
@@ -38127,7 +40372,7 @@
         <v>28</v>
       </c>
       <c r="H499" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I499" t="s">
         <v>81</v>
@@ -38766,7 +41011,7 @@
         <v>118</v>
       </c>
       <c r="H508" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I508" t="s">
         <v>30</v>
@@ -39689,7 +41934,7 @@
         <v>104</v>
       </c>
       <c r="H521" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I521" t="s">
         <v>764</v>
@@ -40115,7 +42360,7 @@
         <v>28</v>
       </c>
       <c r="H527" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I527" t="s">
         <v>86</v>
@@ -40186,7 +42431,7 @@
         <v>28</v>
       </c>
       <c r="H528" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I528" t="s">
         <v>762</v>
@@ -40257,7 +42502,7 @@
         <v>28</v>
       </c>
       <c r="H529" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I529" t="s">
         <v>81</v>
@@ -40754,7 +42999,7 @@
         <v>157</v>
       </c>
       <c r="H536" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I536" t="s">
         <v>68</v>
@@ -40825,7 +43070,7 @@
         <v>157</v>
       </c>
       <c r="H537" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I537" t="s">
         <v>68</v>
@@ -41748,7 +43993,7 @@
         <v>130</v>
       </c>
       <c r="H550" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I550" t="s">
         <v>765</v>
@@ -42032,7 +44277,7 @@
         <v>28</v>
       </c>
       <c r="H554" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I554" t="s">
         <v>134</v>
@@ -42245,7 +44490,7 @@
         <v>104</v>
       </c>
       <c r="H557" t="s">
-        <v>104</v>
+        <v>772</v>
       </c>
       <c r="I557" t="s">
         <v>765</v>
@@ -42387,7 +44632,7 @@
         <v>28</v>
       </c>
       <c r="H559" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I559" t="s">
         <v>86</v>
@@ -42458,7 +44703,7 @@
         <v>28</v>
       </c>
       <c r="H560" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I560" t="s">
         <v>86</v>
@@ -42742,7 +44987,7 @@
         <v>38</v>
       </c>
       <c r="H564" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I564" t="s">
         <v>765</v>
@@ -43381,7 +45626,7 @@
         <v>38</v>
       </c>
       <c r="H573" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I573" t="s">
         <v>762</v>
@@ -45724,7 +47969,7 @@
         <v>28</v>
       </c>
       <c r="H606" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I606" t="s">
         <v>68</v>
@@ -45866,7 +48111,7 @@
         <v>28</v>
       </c>
       <c r="H608" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I608" t="s">
         <v>134</v>
@@ -46079,7 +48324,7 @@
         <v>38</v>
       </c>
       <c r="H611" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I611" t="s">
         <v>765</v>
@@ -46150,7 +48395,7 @@
         <v>38</v>
       </c>
       <c r="H612" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="I612" t="s">
         <v>765</v>
@@ -47450,7 +49695,7 @@
       </c>
       <c r="O630">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P630">
         <v>1</v>
@@ -47500,7 +49745,7 @@
         <v>118</v>
       </c>
       <c r="H631" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I631" t="s">
         <v>56</v>
@@ -47571,7 +49816,7 @@
         <v>28</v>
       </c>
       <c r="H632" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I632" t="s">
         <v>68</v>
@@ -47642,7 +49887,7 @@
         <v>28</v>
       </c>
       <c r="H633" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I633" t="s">
         <v>68</v>
@@ -48281,7 +50526,7 @@
         <v>28</v>
       </c>
       <c r="H642" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="I642" t="s">
         <v>30</v>
@@ -48494,7 +50739,7 @@
         <v>38</v>
       </c>
       <c r="H645" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I645" t="s">
         <v>764</v>
@@ -48849,7 +51094,7 @@
         <v>38</v>
       </c>
       <c r="H650" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="I650" t="s">
         <v>765</v>
